--- a/medicine/Enfance/Le_Général_Dourakine/Le_Général_Dourakine.xlsx
+++ b/medicine/Enfance/Le_Général_Dourakine/Le_Général_Dourakine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_G%C3%A9n%C3%A9ral_Dourakine</t>
+          <t>Le_Général_Dourakine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Général Dourakine est un roman pour enfants écrit par la comtesse de Ségur. Il est publié sous forme de feuilleton à partir du 14 novembre 1863 et fait suite à L'Auberge de l'Ange gardien. Le roman relate les souvenirs qui ont profondément marqué la jeune Sophie, future comtesse, notamment le servage en Russie et l'usage du knout du général envers ses serfs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_G%C3%A9n%C3%A9ral_Dourakine</t>
+          <t>Le_Général_Dourakine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le récit est composé sous forme de dialogue et les caractères des personnages sont simplifiés à l'extrême, personnifiant le bien ou le mal à l'instar des deux nièces du général : Mme Dabrovine (l'ange) et Mme Papofski (le démon).
 Le général Dourakine lui-même, caricature de l'aristocrate autoritaire à l'accent russe très marqué, est un personnage au tempérament volcanique, mais qui révèle un grand cœur. Son nom est formé sur le russe : дурак (dourak), qui signifie « imbécile » et participe à la ridiculisation du personnage.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_G%C3%A9n%C3%A9ral_Dourakine</t>
+          <t>Le_Général_Dourakine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le général Dourakine rentre en Russie, accompagné de la famille Dérigny.
 Peu après son arrivée à Gromiline, la nièce du général, Mme Papofski arrive sans être annoncée au château ce qui déplait fortement au général qui connait son hypocrisie et l'éducation de ses enfants. Mme Papofski est cupide, cruelle et hypocrite, elle bat son personnel et même ses huit enfants. Pour faire enrager sa nièce qu'il n'aime pas, il convie son autre nièce Mme Dabrovine, la sœur de Mme Papofski qui la déteste. MmeDabrovine est veuve inconsolable (son mari est mort à la guerre), convertie au catholicisme, éduque du mieux qu'elle peut sa fille, Natacha, et ses deux fils Alexandre et Michel, leur inculquant des valeurs telles que la compassion et le respect des plus faibles, comme le peuple polonais opprimé par les Russes. Mme Papofski, bien que déjà très riche, convoite l'héritage de Gromiline, alors que Mme Dabrovine, pauvre depuis la mort de son mari, accepte son sort stoïquement.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_G%C3%A9n%C3%A9ral_Dourakine</t>
+          <t>Le_Général_Dourakine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Illustrateurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Général Dourakine a notamment été illustré par Émile Bayard (édition originale de 1863), Pierre Leroy, Gaston Maréchaux, Étienne Le Rallic, J. Gouppy, Matéja, P. Sabattier, André Pécoud, Dupuich, Jobbé-Duval et Marcel Marlier (couverture).
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Le_G%C3%A9n%C3%A9ral_Dourakine</t>
+          <t>Le_Général_Dourakine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Edition tronquée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les éditions Casterman, bien que faisant figurer la mention "texte intégral", ont publié une version amputée de trois chapitres. Il s'agit des chapitres suivants : 18. Récit du prince forçat. 19. Evasion du prince. 20. Voyage pénible, heureuse fin[réf. nécessaire].
 </t>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Le_G%C3%A9n%C3%A9ral_Dourakine</t>
+          <t>Le_Général_Dourakine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +661,9 @@
           <t>Contradiction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le chapitre 13 de L'Auberge de l'Ange-Gardien, le général Dourakine déclare au juge d'instruction, lorsque lui vient l'idée d'adopter Moutier : « Je n'ai ni femme ni enfant, ni frère ni sœur ». Dans ce cas, d'où lui viennent les deux nièces que nous découvrons ici ? On peut objecter que dans le chapitre 9, il confie à Moutier : « J'ai été marié aussi, moi ! » et donc, il aurait deux nièces par alliance. Il n'en reste pas moins que, dans le chapitre 14, il persiste : « Tout le monde est mort chez moi ! »
 </t>
@@ -654,7 +676,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Le_G%C3%A9n%C3%A9ral_Dourakine</t>
+          <t>Le_Général_Dourakine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -674,10 +696,50 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bande dessinée
-Dans le premier album d'Hergé paru en 1929, Tintin au pays des Soviets, le roman lui inspire les scènes dans la steppe enneigée et la rencontre de Tintin avec un ours[1].
-Cinéma
-Le roman a été adapté en 1963 pour la télévision française dans la série de Claude Santelli, Le Théâtre de la jeunesse[2] par Yves-André Hubert.</t>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le premier album d'Hergé paru en 1929, Tintin au pays des Soviets, le roman lui inspire les scènes dans la steppe enneigée et la rencontre de Tintin avec un ours.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Le_Général_Dourakine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_G%C3%A9n%C3%A9ral_Dourakine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dans la fiction</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le roman a été adapté en 1963 pour la télévision française dans la série de Claude Santelli, Le Théâtre de la jeunesse par Yves-André Hubert.</t>
         </is>
       </c>
     </row>
